--- a/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data6.xlsx
+++ b/Benchmark-Models/Fujita_SciSignal2010/Data/model1_data6.xlsx
@@ -430,13 +430,13 @@
         <v>60.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.659724955357775</v>
+        <v>0.6616680103547931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9235457558315829</v>
+        <v>0.9243820299352425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0039799397784924416</v>
+        <v>0.003994367702713755</v>
       </c>
     </row>
     <row r="4">
@@ -444,13 +444,13 @@
         <v>120.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2653113927163677</v>
+        <v>0.26083380588436983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8638192492336599</v>
+        <v>0.863720290176191</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02546066583345723</v>
+        <v>0.025521812763989626</v>
       </c>
     </row>
     <row r="5">
@@ -458,13 +458,13 @@
         <v>300.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004549209198514434</v>
+        <v>0.00401605019542626</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3145472813909809</v>
+        <v>0.3120613417037359</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1631478226174682</v>
+        <v>0.16323521243755018</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>600.0</v>
       </c>
       <c r="B6" t="n">
-        <v>3.058683330281053E-4</v>
+        <v>1.8767197793678533E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.11057779208008812</v>
+        <v>0.11027553914654284</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4009703835817762</v>
+        <v>0.40058441089940044</v>
       </c>
     </row>
     <row r="7">
@@ -486,13 +486,13 @@
         <v>900.0</v>
       </c>
       <c r="B7" t="n">
-        <v>3.0396147534989427E-4</v>
+        <v>1.8627933820239797E-4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09460033940437529</v>
+        <v>0.09421449655524941</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5574326493351368</v>
+        <v>0.5566914142032194</v>
       </c>
     </row>
     <row r="8">
@@ -500,13 +500,13 @@
         <v>1800.0</v>
       </c>
       <c r="B8" t="n">
-        <v>3.0396077231887344E-4</v>
+        <v>1.8627894812552021E-4</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06870854181228045</v>
+        <v>0.06808727694368344</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7058108511275576</v>
+        <v>0.7042704639836563</v>
       </c>
     </row>
     <row r="9">
@@ -514,13 +514,13 @@
         <v>3600.0</v>
       </c>
       <c r="B9" t="n">
-        <v>3.039607722454273E-4</v>
+        <v>1.862789481162897E-4</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03796471497999917</v>
+        <v>0.03667935611961504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5194180219093057</v>
+        <v>0.5153248316210216</v>
       </c>
     </row>
   </sheetData>
